--- a/datasetCovid.xlsx
+++ b/datasetCovid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HELMI FARIZKI\UNSRI\MK\SKRIPSI\SVM\SKRIPSI\PROGRAM\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HELMI FARIZKI\UNSRI\MK\SKRIPSI\SVM\SKRIPSI\PROGRAM\python\flaskSkripsiFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B17F268-BCBF-48F5-9DC0-2412200B4A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AE7E88-E2DA-4030-BD41-B0F87A1F1E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B289C505-5B93-4543-A7A9-FF99ABFE1CBF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="664">
   <si>
     <t>positive</t>
   </si>
@@ -1895,10 +1895,6 @@
     <t>Yg pertama karena org" Indonesia banyak yg menyepelekan nya, yg kedua pemerintah kurang tegas dan kurang sigap dalam menangani covid - 19 ini</t>
   </si>
   <si>
-    <t>Yg perlu disalahkan bukan kang angkotnya, tapi pemerintah dan menkes, mereka tidak memberikan edukasi yang baik pada masyarakat tentang bahaya covid-19 dan penanggulangannya.
-Jangan salahkan mereka ngeyel, itu karma karena pemerintah ngeyel bhw Indonesia bebas virus.</t>
-  </si>
-  <si>
     <t>Yg masalah besar itu pemerintah pusat tidak berani utk Lockdown Negara Indonesia.
 Mencegah Penyebar luasan Virus Covid-19.
 Kami berharap.
@@ -1914,9 +1910,6 @@
     <t>Yg berat kan pemerintah. Tanpa lockdown dampak saat ini sdh terasa. Polisi sdh represif di mana-mana. Belum diresmikan cm karna pemerintah takut keluar duitnya aja. Toh skrg malah buka rekening donasi.</t>
   </si>
   <si>
-    <t>Yg akan (paling) merasakan dampak lockdown adalah masyarakat kecil.. ini akan memicu kekisruhan lainnya. Contoh saja india yg pemerintahnya saja meminta maaf kpd rakyat karena kurang optimal dalam kebijakan lockdown.</t>
-  </si>
-  <si>
     <t>Yang terhormat @cabernetmerlott 
 Kebijakan pemerintah yang salah adalah ketika virus nCoV / Corona / Covid-19 merebak malah membuat kebijakan Insentif Pariwisata.
 Wisatawan asing yg datang ada kemungkinan membawa virus tersebut sehingga menular di Indonesia.
@@ -2590,9 +2583,6 @@
     <t>Pemerintah sedang gagap menangani pandemi Covid-19, jadi dengan alasan apapun sangat tidak pantas usaha menyelundupkan BURUH CHINA menggunakan Visa Kunjungan. Seluruh dunia menutup rapat2 kedatangan WNA China, ada apa dengan Indonesia??</t>
   </si>
   <si>
-    <t>PEMERINTAH SAMA MASYARAKAT INDONESIA KENAPA SIH SE GA SERIUS ITU NANGGAPI COVID-19. GILAA GW PARNOAN KESANA KEMARII. APA HARUS NUNGGU KAYAK ITALY DULU BARU AWARE HEH??? APA NUNGGU BU NINGSIH TINAMPI DULU??? YA NGGAK LAH GOBLOG</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -2600,6 +2590,18 @@
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>PEMERINTAH SAMA MASYARAKAT INDONESIA KENAPA  SE GA SUNGGUH ITU NANGGAPI COVID-19. GILA GW BINGUNG KESANA KEMARII</t>
+  </si>
+  <si>
+    <t>pemerintah gagal mengatasi covid</t>
+  </si>
+  <si>
+    <t>Yg akan (paling) merasakan dampak lockdown adalah masyarakat kecil.. ini akan memicu kekisruhan lainnya. Contoh saja india yg pemerintahnya saja meminta maaf kpd rakyat karena kurang kebijakan lockdown.</t>
+  </si>
+  <si>
+    <t>Yg perlu disalahkan bukan angkotnya, tapi pemerintah dan menteri, mereka tidak memberikan edukasi yang baik pada masyarakat tentang bahaya covid-19 dan penanggulangannya.</t>
   </si>
 </sst>
 </file>
@@ -2665,7 +2667,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3308,7 +3380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3318,36 +3390,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA23EBFA-A1EF-46D8-A54B-2ED224BC79DC}">
   <dimension ref="A1:C831"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.7265625" customWidth="1"/>
     <col min="3" max="3" width="63.1796875" customWidth="1"/>
+    <col min="5" max="5" width="59.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>474</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -3355,32 +3428,32 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -3394,70 +3467,70 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>474</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3471,15 +3544,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>455</v>
+        <v>474</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -3487,32 +3560,32 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3537,15 +3610,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>474</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -8839,15 +8912,15 @@
         <v>454</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>474</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>475</v>
+        <v>0</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -8855,87 +8928,87 @@
         <v>502</v>
       </c>
       <c r="B503" t="s">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>503</v>
       </c>
       <c r="B504" t="s">
-        <v>474</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>506</v>
       </c>
       <c r="B507" t="s">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>474</v>
-      </c>
-      <c r="C508" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>508</v>
       </c>
       <c r="B509" t="s">
-        <v>474</v>
-      </c>
-      <c r="C509" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>481</v>
+        <v>10</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -8943,21 +9016,21 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>474</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>482</v>
+        <v>0</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -8968,18 +9041,18 @@
         <v>474</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>513</v>
       </c>
       <c r="B514" t="s">
-        <v>474</v>
-      </c>
-      <c r="C514" s="2" t="s">
-        <v>483</v>
+        <v>0</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -8987,32 +9060,32 @@
         <v>514</v>
       </c>
       <c r="B515" t="s">
-        <v>474</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>515</v>
       </c>
       <c r="B516" t="s">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>516</v>
       </c>
       <c r="B517" t="s">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>486</v>
+        <v>14</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9023,7 +9096,7 @@
         <v>474</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9034,18 +9107,18 @@
         <v>474</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>519</v>
       </c>
       <c r="B520" t="s">
-        <v>474</v>
-      </c>
-      <c r="C520" s="2" t="s">
-        <v>489</v>
+        <v>0</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="145" x14ac:dyDescent="0.35">
@@ -9056,7 +9129,7 @@
         <v>474</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9067,7 +9140,7 @@
         <v>474</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9078,7 +9151,7 @@
         <v>474</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9089,7 +9162,7 @@
         <v>474</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9100,7 +9173,7 @@
         <v>474</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9111,7 +9184,7 @@
         <v>474</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9122,7 +9195,7 @@
         <v>474</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9133,7 +9206,7 @@
         <v>474</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9144,7 +9217,7 @@
         <v>474</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -9155,7 +9228,7 @@
         <v>474</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9166,7 +9239,7 @@
         <v>474</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9177,7 +9250,7 @@
         <v>474</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9188,7 +9261,7 @@
         <v>474</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -9199,7 +9272,7 @@
         <v>474</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9210,7 +9283,7 @@
         <v>474</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9221,7 +9294,7 @@
         <v>474</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9232,7 +9305,7 @@
         <v>474</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9243,7 +9316,7 @@
         <v>474</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9254,7 +9327,7 @@
         <v>474</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9265,7 +9338,7 @@
         <v>474</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9276,7 +9349,7 @@
         <v>474</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9287,7 +9360,7 @@
         <v>474</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9298,7 +9371,7 @@
         <v>474</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9309,7 +9382,7 @@
         <v>474</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9320,7 +9393,7 @@
         <v>474</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9331,7 +9404,7 @@
         <v>474</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9342,7 +9415,7 @@
         <v>474</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9353,7 +9426,7 @@
         <v>474</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9364,7 +9437,7 @@
         <v>474</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9375,7 +9448,7 @@
         <v>474</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9386,7 +9459,7 @@
         <v>474</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
@@ -9397,7 +9470,7 @@
         <v>474</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
@@ -9408,7 +9481,7 @@
         <v>474</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9419,7 +9492,7 @@
         <v>474</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9430,7 +9503,7 @@
         <v>474</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9441,7 +9514,7 @@
         <v>474</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9452,7 +9525,7 @@
         <v>474</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9463,7 +9536,7 @@
         <v>474</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9474,7 +9547,7 @@
         <v>474</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9485,7 +9558,7 @@
         <v>474</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9496,7 +9569,7 @@
         <v>474</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9507,7 +9580,7 @@
         <v>474</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9518,7 +9591,7 @@
         <v>474</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9529,7 +9602,7 @@
         <v>474</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9540,7 +9613,7 @@
         <v>474</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9551,7 +9624,7 @@
         <v>474</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9562,7 +9635,7 @@
         <v>474</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9573,7 +9646,7 @@
         <v>474</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9584,7 +9657,7 @@
         <v>474</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9595,7 +9668,7 @@
         <v>474</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9606,7 +9679,7 @@
         <v>474</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9617,7 +9690,7 @@
         <v>474</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9628,7 +9701,7 @@
         <v>474</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9639,7 +9712,7 @@
         <v>474</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9650,7 +9723,7 @@
         <v>474</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9661,7 +9734,7 @@
         <v>474</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9672,7 +9745,7 @@
         <v>474</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9683,7 +9756,7 @@
         <v>474</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9694,7 +9767,7 @@
         <v>474</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -9705,7 +9778,7 @@
         <v>474</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9716,7 +9789,7 @@
         <v>474</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9727,7 +9800,7 @@
         <v>474</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9738,7 +9811,7 @@
         <v>474</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9749,7 +9822,7 @@
         <v>474</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9760,7 +9833,7 @@
         <v>474</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9771,7 +9844,7 @@
         <v>474</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9782,7 +9855,7 @@
         <v>474</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9793,7 +9866,7 @@
         <v>474</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9804,7 +9877,7 @@
         <v>474</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9815,7 +9888,7 @@
         <v>474</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9826,7 +9899,7 @@
         <v>474</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -9837,7 +9910,7 @@
         <v>474</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9848,7 +9921,7 @@
         <v>474</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9859,7 +9932,7 @@
         <v>474</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9870,7 +9943,7 @@
         <v>474</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -9881,7 +9954,7 @@
         <v>474</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9892,7 +9965,7 @@
         <v>474</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9903,7 +9976,7 @@
         <v>474</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9914,7 +9987,7 @@
         <v>474</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9925,7 +9998,7 @@
         <v>474</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9936,7 +10009,7 @@
         <v>474</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9947,7 +10020,7 @@
         <v>474</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9958,7 +10031,7 @@
         <v>474</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9969,7 +10042,7 @@
         <v>474</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9980,7 +10053,7 @@
         <v>474</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9991,7 +10064,7 @@
         <v>474</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10002,7 +10075,7 @@
         <v>474</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10013,7 +10086,7 @@
         <v>474</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10024,7 +10097,7 @@
         <v>474</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10035,7 +10108,7 @@
         <v>474</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10046,7 +10119,7 @@
         <v>474</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10057,7 +10130,7 @@
         <v>474</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10068,7 +10141,7 @@
         <v>474</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10079,7 +10152,7 @@
         <v>474</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10090,7 +10163,7 @@
         <v>474</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10101,7 +10174,7 @@
         <v>474</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10112,7 +10185,7 @@
         <v>474</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10123,7 +10196,7 @@
         <v>474</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10134,7 +10207,7 @@
         <v>474</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10145,7 +10218,7 @@
         <v>474</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="145" x14ac:dyDescent="0.35">
@@ -10156,7 +10229,7 @@
         <v>474</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10167,7 +10240,7 @@
         <v>474</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -10178,7 +10251,7 @@
         <v>474</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -10189,7 +10262,7 @@
         <v>474</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10200,7 +10273,7 @@
         <v>474</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10211,7 +10284,7 @@
         <v>474</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10222,7 +10295,7 @@
         <v>474</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10233,7 +10306,7 @@
         <v>474</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
@@ -10244,7 +10317,7 @@
         <v>474</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10255,7 +10328,7 @@
         <v>474</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10266,7 +10339,7 @@
         <v>474</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10277,7 +10350,7 @@
         <v>474</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10288,7 +10361,7 @@
         <v>474</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10299,7 +10372,7 @@
         <v>474</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10310,7 +10383,7 @@
         <v>474</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="636" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10321,7 +10394,7 @@
         <v>474</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10332,7 +10405,7 @@
         <v>474</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="638" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10343,7 +10416,7 @@
         <v>474</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="639" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10354,7 +10427,7 @@
         <v>474</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10365,7 +10438,7 @@
         <v>474</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10376,7 +10449,7 @@
         <v>474</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10387,7 +10460,7 @@
         <v>474</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10398,7 +10471,7 @@
         <v>474</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10409,7 +10482,7 @@
         <v>474</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10420,7 +10493,7 @@
         <v>474</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10431,7 +10504,7 @@
         <v>474</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10442,7 +10515,7 @@
         <v>474</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="174" x14ac:dyDescent="0.35">
@@ -10453,7 +10526,7 @@
         <v>474</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="649" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10464,7 +10537,7 @@
         <v>474</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10475,7 +10548,7 @@
         <v>474</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="651" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10486,7 +10559,7 @@
         <v>474</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="652" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10497,7 +10570,7 @@
         <v>474</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="653" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10508,7 +10581,7 @@
         <v>474</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="654" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10519,7 +10592,7 @@
         <v>474</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="655" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10530,7 +10603,7 @@
         <v>474</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="656" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10541,7 +10614,7 @@
         <v>474</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="657" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10552,7 +10625,7 @@
         <v>474</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="658" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10563,7 +10636,7 @@
         <v>474</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="659" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10574,7 +10647,7 @@
         <v>474</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="660" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10585,7 +10658,7 @@
         <v>474</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="661" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10596,7 +10669,7 @@
         <v>474</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="662" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10607,7 +10680,7 @@
         <v>474</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="663" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10618,7 +10691,7 @@
         <v>474</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="664" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10629,7 +10702,7 @@
         <v>474</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="665" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10640,7 +10713,7 @@
         <v>474</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="666" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10651,7 +10724,7 @@
         <v>474</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="667" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10662,7 +10735,7 @@
         <v>474</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="668" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10673,7 +10746,7 @@
         <v>474</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="669" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10684,7 +10757,7 @@
         <v>474</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="670" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10695,7 +10768,7 @@
         <v>474</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="671" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -10706,7 +10779,7 @@
         <v>474</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="672" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10717,7 +10790,7 @@
         <v>474</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="673" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10728,7 +10801,7 @@
         <v>474</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="674" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10739,7 +10812,7 @@
         <v>474</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="675" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10750,7 +10823,7 @@
         <v>474</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="676" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10761,7 +10834,7 @@
         <v>474</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="677" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10772,7 +10845,7 @@
         <v>474</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="678" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10783,7 +10856,7 @@
         <v>474</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="679" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10794,7 +10867,7 @@
         <v>474</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="680" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10805,7 +10878,7 @@
         <v>474</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="681" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10816,7 +10889,7 @@
         <v>474</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="682" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10827,7 +10900,7 @@
         <v>474</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="683" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10838,7 +10911,7 @@
         <v>474</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="684" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10849,7 +10922,7 @@
         <v>474</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="685" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10860,7 +10933,7 @@
         <v>474</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="686" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10871,7 +10944,7 @@
         <v>474</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="687" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10882,7 +10955,7 @@
         <v>474</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="688" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10893,7 +10966,7 @@
         <v>474</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="689" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10904,7 +10977,7 @@
         <v>474</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="690" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10915,7 +10988,7 @@
         <v>474</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="691" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10926,7 +10999,7 @@
         <v>474</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="692" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10937,7 +11010,7 @@
         <v>474</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="693" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10948,7 +11021,7 @@
         <v>474</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="694" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10959,7 +11032,7 @@
         <v>474</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="695" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10970,7 +11043,7 @@
         <v>474</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="696" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10981,7 +11054,7 @@
         <v>474</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="697" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10992,7 +11065,7 @@
         <v>474</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="698" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -11003,7 +11076,7 @@
         <v>474</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="699" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -11014,7 +11087,7 @@
         <v>474</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="700" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -11025,7 +11098,7 @@
         <v>474</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="701" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -11036,7 +11109,7 @@
         <v>474</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.35">
@@ -11424,106 +11497,127 @@
       <c r="C831" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C13 C194:C211 C185:C192 C160:C183 C154:C158 C150 C95:C148 C86:C93 C64:C84 C49:C62 C26:C47 C15:C24">
-    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C212:C253 C441:C501 C408:C439 C333:C406 C324:C331 C305:C322 C263:C303 C255:C261 C715:C831">
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C440">
-    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C407">
-    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C332">
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C323">
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C304">
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C262">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C193">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152:C153">
+    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20 C14:C17 C7:C11 C704:C713 C651:C702 C638:C649 C618:C636 C607:C616 C600:C605 C591:C598 C577:C589 C544:C565 C518:C519 C521:C542 C513">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
+  <conditionalFormatting sqref="C650">
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
+  <conditionalFormatting sqref="C637">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
+  <conditionalFormatting sqref="C617">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
+  <conditionalFormatting sqref="C606">
     <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C599">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
+  <conditionalFormatting sqref="C590">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C576">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C572:C575">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C704:C713 C502:C503 C651:C702 C638:C649 C618:C636 C607:C616 C600:C605 C591:C598 C577:C589 C544:C565 C512:C542 C505:C510">
+  <conditionalFormatting sqref="C566:C571">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C650">
+  <conditionalFormatting sqref="C543">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C637">
+  <conditionalFormatting sqref="C511">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C617">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  <conditionalFormatting sqref="C2:C3 C5">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C606">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C599">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="C502:C505">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C590">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="C506:C510">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C576">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C572:C575">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="C512">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C566:C571">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="C515:C517">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C543">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="C514">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C511">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="C13 C6 C194:C211 C185:C192 C160:C183 C154:C158 C150 C95:C148 C86:C93 C64:C84 C49:C62 C26:C47 C18:C19 C21:C24">
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C504">
+  <conditionalFormatting sqref="C520">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasetCovid.xlsx
+++ b/datasetCovid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HELMI FARIZKI\UNSRI\MK\SKRIPSI\SVM\SKRIPSI\PROGRAM\python\flaskSkripsiFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HELMI FARIZKI\UNSRI\MK\SKRIPSI\SVM\SKRIPSI\PROGRAM\python\SVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AE7E88-E2DA-4030-BD41-B0F87A1F1E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8C5E9-57CD-462F-A387-4697AAB02EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B289C505-5B93-4543-A7A9-FF99ABFE1CBF}"/>
   </bookViews>
@@ -3390,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA23EBFA-A1EF-46D8-A54B-2ED224BC79DC}">
   <dimension ref="A1:C831"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8620,7 +8620,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>428</v>

--- a/datasetCovid.xlsx
+++ b/datasetCovid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HELMI FARIZKI\UNSRI\MK\SKRIPSI\SVM\SKRIPSI\PROGRAM\python\SVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HELMI FARIZKI\UNSRI\MK\SKRIPSI\SVM\SKRIPSI\PROGRAM\python\FINALSKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8C5E9-57CD-462F-A387-4697AAB02EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBC743C-082B-41B6-829D-4C70C6EA46F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B289C505-5B93-4543-A7A9-FF99ABFE1CBF}"/>
   </bookViews>
@@ -1755,10 +1755,6 @@
     <t>Kebijakan: Social Distancing, tapi hasil yg diharapkan mirip dgn Lock Down. Ini cara bijak agar tujuan memutus penyebaran Virus,  dgn minim dampak</t>
   </si>
   <si>
-    <t>Kebijakan pemerintah pusat dalam penanggulangan COVID-19 melalui PSBB sangat tepat dan berdampak positif bagi perekonomian Indonesia. 
-Rupiah Perkasa, Libas Dolar AS, Hingga Mata Uang Asia &amp; Eropa http://detik.id/6N0QiEÂ </t>
-  </si>
-  <si>
     <t>Kebijakan Pembatasan Sosial Berskala Besar (PSBB) menjadi pilihan paling rasional di tengah pandemi COVID-19 yang melanda Indonesia. Ada dua pertimbangan utama dalam menerapkan PSBB, yang dituangkan dalam Peraturan Pemerintah Republik Indonesia Nomor 21 Tahun 2020.</t>
   </si>
   <si>
@@ -2602,6 +2598,10 @@
   </si>
   <si>
     <t>Yg perlu disalahkan bukan angkotnya, tapi pemerintah dan menteri, mereka tidak memberikan edukasi yang baik pada masyarakat tentang bahaya covid-19 dan penanggulangannya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kebijakan pemerintah pusat dalam penanggulangan COVID-19 melalui PSBB sangat tepat dan berdampak positif bagi perekonomian Indonesia. 
+Rupiah Perkasa, Libas Dolar AS, Hingga Mata Uang Asia &amp; Eropa </t>
   </si>
 </sst>
 </file>
@@ -2667,7 +2667,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3391,7 +3421,7 @@
   <dimension ref="A1:C831"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3403,35 +3433,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1" t="s">
         <v>657</v>
       </c>
-      <c r="B1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -3439,10 +3469,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -3450,10 +3480,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -3467,15 +3497,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>661</v>
+        <v>473</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
@@ -3483,10 +3513,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -3494,10 +3524,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3505,10 +3535,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -3516,10 +3546,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -3527,10 +3557,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3549,10 +3579,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -3560,10 +3590,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3571,10 +3601,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -3582,10 +3612,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -3615,10 +3645,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -3670,10 +3700,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -3926,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -4091,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -4333,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -4432,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -5037,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -5059,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -5070,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -5081,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -5147,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -5422,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -5521,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -6192,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -6280,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -6742,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -6951,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -7050,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -7875,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -8238,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -8620,7 +8650,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>428</v>
@@ -8714,7 +8744,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>483</v>
       </c>
@@ -8722,18 +8752,18 @@
         <v>0</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>0</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>438</v>
+        <v>473</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -8744,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -8755,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -8766,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -8777,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -8788,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -8799,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -8810,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -8821,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -8832,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -8843,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -8854,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -8865,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="145" x14ac:dyDescent="0.35">
@@ -8876,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -8887,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -8898,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -8909,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9019,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9038,10 +9068,10 @@
         <v>512</v>
       </c>
       <c r="B513" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9052,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9093,10 +9123,10 @@
         <v>517</v>
       </c>
       <c r="B518" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9104,10 +9134,10 @@
         <v>518</v>
       </c>
       <c r="B519" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9126,10 +9156,10 @@
         <v>520</v>
       </c>
       <c r="B521" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9137,10 +9167,10 @@
         <v>521</v>
       </c>
       <c r="B522" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9148,10 +9178,10 @@
         <v>522</v>
       </c>
       <c r="B523" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9159,10 +9189,10 @@
         <v>523</v>
       </c>
       <c r="B524" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9170,10 +9200,10 @@
         <v>524</v>
       </c>
       <c r="B525" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9181,10 +9211,10 @@
         <v>525</v>
       </c>
       <c r="B526" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9192,10 +9222,10 @@
         <v>526</v>
       </c>
       <c r="B527" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9203,10 +9233,10 @@
         <v>527</v>
       </c>
       <c r="B528" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9214,10 +9244,10 @@
         <v>528</v>
       </c>
       <c r="B529" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -9225,10 +9255,10 @@
         <v>529</v>
       </c>
       <c r="B530" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9236,10 +9266,10 @@
         <v>530</v>
       </c>
       <c r="B531" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9247,10 +9277,10 @@
         <v>531</v>
       </c>
       <c r="B532" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9258,10 +9288,10 @@
         <v>532</v>
       </c>
       <c r="B533" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -9269,10 +9299,10 @@
         <v>533</v>
       </c>
       <c r="B534" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9280,10 +9310,10 @@
         <v>534</v>
       </c>
       <c r="B535" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9291,10 +9321,10 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9302,10 +9332,10 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9313,10 +9343,10 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9324,10 +9354,10 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9335,10 +9365,10 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9346,10 +9376,10 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9357,10 +9387,10 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9368,10 +9398,10 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9379,10 +9409,10 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9390,10 +9420,10 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9401,10 +9431,10 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9412,10 +9442,10 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9423,10 +9453,10 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9434,10 +9464,10 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9445,10 +9475,10 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9456,10 +9486,10 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
@@ -9467,10 +9497,10 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
@@ -9478,10 +9508,10 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9489,10 +9519,10 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9500,10 +9530,10 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9511,10 +9541,10 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9522,10 +9552,10 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9533,10 +9563,10 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9544,10 +9574,10 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9555,10 +9585,10 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9566,10 +9596,10 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9577,10 +9607,10 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9588,10 +9618,10 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9599,10 +9629,10 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9610,10 +9640,10 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9621,10 +9651,10 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9632,10 +9662,10 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9643,10 +9673,10 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9654,10 +9684,10 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9665,10 +9695,10 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9676,10 +9706,10 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9687,10 +9717,10 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9698,10 +9728,10 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9709,10 +9739,10 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9720,10 +9750,10 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9731,10 +9761,10 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9742,10 +9772,10 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9753,10 +9783,10 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9764,10 +9794,10 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -9775,10 +9805,10 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -9786,10 +9816,10 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -9797,10 +9827,10 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9808,10 +9838,10 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9819,10 +9849,10 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9830,10 +9860,10 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9841,10 +9871,10 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9852,10 +9882,10 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9863,10 +9893,10 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9874,10 +9904,10 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9885,10 +9915,10 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9896,10 +9926,10 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -9907,10 +9937,10 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -9918,10 +9948,10 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9929,10 +9959,10 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9940,10 +9970,10 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -9951,10 +9981,10 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9962,10 +9992,10 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -9973,10 +10003,10 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -9984,10 +10014,10 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -9995,10 +10025,10 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10006,10 +10036,10 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10017,10 +10047,10 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10028,10 +10058,10 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10039,10 +10069,10 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10050,10 +10080,10 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10061,10 +10091,10 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10072,10 +10102,10 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10083,10 +10113,10 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10094,10 +10124,10 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10105,10 +10135,10 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10116,10 +10146,10 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10127,10 +10157,10 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10138,10 +10168,10 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10149,10 +10179,10 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10160,10 +10190,10 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10171,10 +10201,10 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10182,10 +10212,10 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10193,10 +10223,10 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10204,10 +10234,10 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10215,10 +10245,10 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="145" x14ac:dyDescent="0.35">
@@ -10226,10 +10256,10 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10237,10 +10267,10 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -10248,10 +10278,10 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -10259,10 +10289,10 @@
         <v>623</v>
       </c>
       <c r="B624" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10270,10 +10300,10 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10281,10 +10311,10 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10292,10 +10322,10 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10303,10 +10333,10 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
@@ -10314,10 +10344,10 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10325,10 +10355,10 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10336,10 +10366,10 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10347,10 +10377,10 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10358,10 +10388,10 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10369,10 +10399,10 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10380,10 +10410,10 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="636" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10391,10 +10421,10 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10402,10 +10432,10 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="638" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10413,10 +10443,10 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="639" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10424,10 +10454,10 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10435,10 +10465,10 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10446,10 +10476,10 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10457,10 +10487,10 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10468,10 +10498,10 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10479,10 +10509,10 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10490,10 +10520,10 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10501,10 +10531,10 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10512,10 +10542,10 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="174" x14ac:dyDescent="0.35">
@@ -10523,10 +10553,10 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="649" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10534,10 +10564,10 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10545,10 +10575,10 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="651" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10556,10 +10586,10 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="652" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10567,10 +10597,10 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="653" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10578,10 +10608,10 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="654" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10589,10 +10619,10 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="655" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10600,10 +10630,10 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="656" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10611,10 +10641,10 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="657" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10622,10 +10652,10 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="658" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10633,10 +10663,10 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="659" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10644,10 +10674,10 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="660" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10655,10 +10685,10 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="661" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10666,10 +10696,10 @@
         <v>660</v>
       </c>
       <c r="B661" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="662" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10677,10 +10707,10 @@
         <v>661</v>
       </c>
       <c r="B662" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="663" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10688,10 +10718,10 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="664" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10699,10 +10729,10 @@
         <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="665" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10710,10 +10740,10 @@
         <v>664</v>
       </c>
       <c r="B665" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="666" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -10721,10 +10751,10 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="667" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10732,10 +10762,10 @@
         <v>666</v>
       </c>
       <c r="B667" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="668" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10743,10 +10773,10 @@
         <v>667</v>
       </c>
       <c r="B668" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="669" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10754,10 +10784,10 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="670" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -10765,10 +10795,10 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="671" spans="1:3" ht="116" x14ac:dyDescent="0.35">
@@ -10776,10 +10806,10 @@
         <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="672" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10787,10 +10817,10 @@
         <v>671</v>
       </c>
       <c r="B672" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="673" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10798,10 +10828,10 @@
         <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="674" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10809,10 +10839,10 @@
         <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="675" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10820,10 +10850,10 @@
         <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="676" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10831,10 +10861,10 @@
         <v>675</v>
       </c>
       <c r="B676" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="677" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10842,10 +10872,10 @@
         <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="678" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10853,10 +10883,10 @@
         <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="679" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10864,10 +10894,10 @@
         <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="680" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10875,10 +10905,10 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="681" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10886,10 +10916,10 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="682" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10897,10 +10927,10 @@
         <v>681</v>
       </c>
       <c r="B682" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="683" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10908,10 +10938,10 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="684" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10919,10 +10949,10 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="685" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10930,10 +10960,10 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="686" spans="1:3" ht="87" x14ac:dyDescent="0.35">
@@ -10941,10 +10971,10 @@
         <v>685</v>
       </c>
       <c r="B686" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="687" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
@@ -10952,10 +10982,10 @@
         <v>686</v>
       </c>
       <c r="B687" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="688" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10963,10 +10993,10 @@
         <v>687</v>
       </c>
       <c r="B688" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="689" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -10974,10 +11004,10 @@
         <v>688</v>
       </c>
       <c r="B689" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="690" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10985,10 +11015,10 @@
         <v>689</v>
       </c>
       <c r="B690" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="691" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -10996,10 +11026,10 @@
         <v>690</v>
       </c>
       <c r="B691" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="692" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -11007,10 +11037,10 @@
         <v>691</v>
       </c>
       <c r="B692" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="693" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -11018,10 +11048,10 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="694" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -11029,10 +11059,10 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="695" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -11040,10 +11070,10 @@
         <v>694</v>
       </c>
       <c r="B695" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="696" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -11051,10 +11081,10 @@
         <v>695</v>
       </c>
       <c r="B696" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="697" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -11062,10 +11092,10 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="698" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -11073,10 +11103,10 @@
         <v>697</v>
       </c>
       <c r="B698" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="699" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -11084,10 +11114,10 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="700" spans="1:3" ht="58" x14ac:dyDescent="0.35">
@@ -11095,10 +11125,10 @@
         <v>699</v>
       </c>
       <c r="B700" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="701" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
@@ -11106,10 +11136,10 @@
         <v>700</v>
       </c>
       <c r="B701" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.35">
@@ -11497,127 +11527,136 @@
       <c r="C831" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C212:C253 C441:C501 C408:C439 C333:C406 C324:C331 C305:C322 C263:C303 C255:C261 C715:C831">
-    <cfRule type="duplicateValues" dxfId="40" priority="42"/>
+  <conditionalFormatting sqref="C212:C253 C441:C484 C408:C439 C333:C406 C324:C331 C305:C322 C263:C303 C255:C261 C715:C831 C486:C501">
+    <cfRule type="duplicateValues" dxfId="43" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C440">
-    <cfRule type="duplicateValues" dxfId="39" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C407">
-    <cfRule type="duplicateValues" dxfId="38" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C332">
-    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C323">
-    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C304">
-    <cfRule type="duplicateValues" dxfId="35" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C262">
-    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C193">
-    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184">
-    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152:C153">
-    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
+  <conditionalFormatting sqref="C20 C14:C17 C10:C11 C25 C8 C704:C713 C651:C702 C638:C649 C618:C636 C607:C616 C600:C605 C591:C598 C577:C589 C544:C565 C518:C519 C521:C542 C513">
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20 C14:C17 C7:C11 C704:C713 C651:C702 C638:C649 C618:C636 C607:C616 C600:C605 C591:C598 C577:C589 C544:C565 C518:C519 C521:C542 C513">
+  <conditionalFormatting sqref="C650">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C637">
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C617">
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C606">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C650">
+  <conditionalFormatting sqref="C599">
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C637">
+  <conditionalFormatting sqref="C590">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C617">
+  <conditionalFormatting sqref="C576">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C606">
+  <conditionalFormatting sqref="C572:C575">
     <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C599">
+  <conditionalFormatting sqref="C566:C571">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C590">
+  <conditionalFormatting sqref="C543">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C576">
+  <conditionalFormatting sqref="C511">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C572:C575">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  <conditionalFormatting sqref="C7 C5">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C566:C571">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C543">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  <conditionalFormatting sqref="C502:C505">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C511">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  <conditionalFormatting sqref="C506:C510">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C3 C5">
+  <conditionalFormatting sqref="C12">
     <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="C512">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C502:C505">
+  <conditionalFormatting sqref="C515:C517">
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C506:C510">
+  <conditionalFormatting sqref="C514">
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C512">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C515:C517">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C514">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C13 C6 C194:C211 C185:C192 C160:C183 C154:C158 C150 C95:C148 C86:C93 C64:C84 C49:C62 C26:C47 C18:C19 C21:C24">
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C520">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C485">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasetCovid.xlsx
+++ b/datasetCovid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HELMI FARIZKI\UNSRI\MK\SKRIPSI\SVM\SKRIPSI\PROGRAM\python\FINALSKRIPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HELMI FARIZKI\UNSRI\MK\SKRIPSI\SVM\SKRIPSI\PROGRAM\python\FINALSKRIPSI - REVISI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBC743C-082B-41B6-829D-4C70C6EA46F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C077226-2D7B-4B72-AD7C-FE4DF157522E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B289C505-5B93-4543-A7A9-FF99ABFE1CBF}"/>
   </bookViews>
@@ -2667,7 +2667,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3410,7 +3430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3420,8 +3440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA23EBFA-A1EF-46D8-A54B-2ED224BC79DC}">
   <dimension ref="A1:C831"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A700" workbookViewId="0">
+      <selection activeCell="C701" sqref="C701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8524,59 +8544,59 @@
         <v>416</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>421</v>
+        <v>634</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -11087,59 +11107,59 @@
         <v>630</v>
       </c>
     </row>
-    <row r="697" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="698" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>697</v>
       </c>
       <c r="B698" t="s">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="699" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>698</v>
       </c>
       <c r="B699" t="s">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="700" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>699</v>
       </c>
       <c r="B700" t="s">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="701" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>700</v>
       </c>
       <c r="B701" t="s">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>634</v>
+        <v>421</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.35">
@@ -11527,136 +11547,142 @@
       <c r="C831" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C212:C253 C441:C484 C408:C439 C333:C406 C324:C331 C305:C322 C263:C303 C255:C261 C715:C831 C486:C501">
+  <conditionalFormatting sqref="C212:C253 C441:C463 C408:C439 C333:C406 C324:C331 C305:C322 C263:C303 C255:C261 C715:C831 C486:C501 C469:C484">
+    <cfRule type="duplicateValues" dxfId="45" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C440">
+    <cfRule type="duplicateValues" dxfId="44" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C407">
     <cfRule type="duplicateValues" dxfId="43" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C440">
+  <conditionalFormatting sqref="C332">
     <cfRule type="duplicateValues" dxfId="42" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C407">
+  <conditionalFormatting sqref="C323">
     <cfRule type="duplicateValues" dxfId="41" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C332">
+  <conditionalFormatting sqref="C304">
     <cfRule type="duplicateValues" dxfId="40" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C323">
+  <conditionalFormatting sqref="C262">
     <cfRule type="duplicateValues" dxfId="39" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C304">
+  <conditionalFormatting sqref="C254">
     <cfRule type="duplicateValues" dxfId="38" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
+  <conditionalFormatting sqref="C193">
     <cfRule type="duplicateValues" dxfId="37" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
+  <conditionalFormatting sqref="C184">
     <cfRule type="duplicateValues" dxfId="36" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
+  <conditionalFormatting sqref="C159">
     <cfRule type="duplicateValues" dxfId="35" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
+  <conditionalFormatting sqref="C152:C153">
     <cfRule type="duplicateValues" dxfId="34" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
+  <conditionalFormatting sqref="C151">
     <cfRule type="duplicateValues" dxfId="33" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C152:C153">
+  <conditionalFormatting sqref="C149">
     <cfRule type="duplicateValues" dxfId="32" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
+  <conditionalFormatting sqref="C94">
     <cfRule type="duplicateValues" dxfId="31" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
+  <conditionalFormatting sqref="C85">
     <cfRule type="duplicateValues" dxfId="30" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
+  <conditionalFormatting sqref="C63">
     <cfRule type="duplicateValues" dxfId="29" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
+  <conditionalFormatting sqref="C48">
     <cfRule type="duplicateValues" dxfId="28" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+  <conditionalFormatting sqref="C20 C14:C17 C10:C11 C25 C8 C704:C713 C651:C696 C638:C649 C618:C636 C607:C616 C600:C605 C591:C598 C577:C589 C544:C565 C518:C519 C521:C542 C513 C702">
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+  <conditionalFormatting sqref="C650">
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20 C14:C17 C10:C11 C25 C8 C704:C713 C651:C702 C638:C649 C618:C636 C607:C616 C600:C605 C591:C598 C577:C589 C544:C565 C518:C519 C521:C542 C513">
+  <conditionalFormatting sqref="C637">
     <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C650">
+  <conditionalFormatting sqref="C617">
     <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C637">
+  <conditionalFormatting sqref="C606">
     <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C617">
+  <conditionalFormatting sqref="C599">
     <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C606">
+  <conditionalFormatting sqref="C590">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C599">
+  <conditionalFormatting sqref="C576">
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C590">
+  <conditionalFormatting sqref="C572:C575">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C576">
+  <conditionalFormatting sqref="C566:C571">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C572:C575">
+  <conditionalFormatting sqref="C543">
     <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C566:C571">
+  <conditionalFormatting sqref="C511">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C543">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  <conditionalFormatting sqref="C7 C5">
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C511">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7 C5">
+  <conditionalFormatting sqref="C502:C505">
     <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="C506:C510">
     <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C502:C505">
+  <conditionalFormatting sqref="C12">
     <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C506:C510">
+  <conditionalFormatting sqref="C512">
     <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C515:C517">
     <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C512">
+  <conditionalFormatting sqref="C514">
     <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C515:C517">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C514">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C13 C6 C194:C211 C185:C192 C160:C183 C154:C158 C150 C95:C148 C86:C93 C64:C84 C49:C62 C26:C47 C18:C19 C21:C24">
-    <cfRule type="duplicateValues" dxfId="5" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C520">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C485">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C485">
+  <conditionalFormatting sqref="C3">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="C9">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
+  <conditionalFormatting sqref="C464:C468">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
+  <conditionalFormatting sqref="C697:C701">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
